--- a/data/chap7/7.1.xlsx
+++ b/data/chap7/7.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolders\桌面\free-excel-main\data\chap7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\free-excel\data\chap7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1933C973-43C9-4979-888C-53992AFCF692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8482515-C53C-4C13-B569-68DA7B6A4FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC354FC0-0325-4A18-8BAC-010E12A528C0}"/>
+    <workbookView xWindow="-5790" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{DC354FC0-0325-4A18-8BAC-010E12A528C0}"/>
   </bookViews>
   <sheets>
     <sheet name="案例1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -149,6 +171,14 @@
   </si>
   <si>
     <t>刘红梅</t>
+  </si>
+  <si>
+    <t>1.打开 `data/chap7/7.1xlsx`中的【案例1】计算河北区中商品1的最小销售额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.打开 `data/chap7/7.1xlsx`中的【案例1】计算湖北中什么渠道下的什么商品具有最高销售额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -218,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,80 +256,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -319,7 +282,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -608,15 +571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21027F96-C123-4108-8EF8-C7B16BDAA79F}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,8 +601,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -662,7 +628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -685,7 +651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -707,8 +673,12 @@
       <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">MIN(_xlfn._xlws.FILTER(F2:F30,C2:C30="河北区"))</f>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -731,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -753,8 +723,11 @@
       <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -777,7 +750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -799,8 +772,12 @@
       <c r="G8" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8" t="str" cm="1">
+        <f t="array" ref="J8">_xlfn._xlws.FILTER(E2:E30,F2:F30=MAX(_xlfn._xlws.FILTER(F2:F30,C2:C30="湖北区")))</f>
+        <v>代理</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -822,8 +799,12 @@
       <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" t="str" cm="1">
+        <f t="array" ref="J9">_xlfn._xlws.FILTER(D2:D30,F2:F30=MAX(_xlfn._xlws.FILTER(F2:F30,C2:C30="湖北区")))</f>
+        <v>商品4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -846,7 +827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -869,7 +850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -892,7 +873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -915,7 +896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -938,7 +919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -961,7 +942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -984,7 +965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1007,7 +988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1030,7 +1011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1053,7 +1034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1076,7 +1057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1099,7 +1080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1122,7 +1103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1145,7 +1126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1168,7 +1149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1191,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1214,7 +1195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1237,7 +1218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1260,7 +1241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1283,7 +1264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
